--- a/data/controles_results/difmedias_controles_staggered_variables_2019.xlsx
+++ b/data/controles_results/difmedias_controles_staggered_variables_2019.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="112" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="126" uniqueCount="55">
   <si>
     <t/>
   </si>
@@ -39,7 +39,10 @@
     <t>cantidad_ara</t>
   </si>
   <si>
-    <t xml:space="preserve">If the table includes missing values (.n, .o, .v etc.) see the Missing values section in the help file for the Stata command iebaltab for definitions of these values. Significance: ***=.01, **=.05, *=.1. Full user input as written by user: [iebaltab dummy_jb dummy_d1 dummy_ara cantidad_jb cantidad_d1 cantidad_ara , groupvar(dummy_oxxo) control(0) savexlsx(difmedias_controles_staggered_variables_2019) replace] </t>
+    <t>ingreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the table includes missing values (.n, .o, .v etc.) see the Missing values section in the help file for the Stata command iebaltab for definitions of these values. Significance: ***=.01, **=.05, *=.1. Full user input as written by user: [iebaltab dummy_jb dummy_d1 dummy_ara cantidad_jb cantidad_d1 cantidad_ara ingreso , groupvar(dummy_oxxo) control(0) savexlsx(difmedias_controles_staggered_variables_2019) replace] </t>
   </si>
   <si>
     <t>N</t>
@@ -57,37 +60,43 @@
     <t>Mean/(SE)</t>
   </si>
   <si>
-    <t>0.083</t>
-  </si>
-  <si>
-    <t>(0.010)</t>
-  </si>
-  <si>
-    <t>0.170</t>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>(0.009)</t>
+  </si>
+  <si>
+    <t>0.158</t>
   </si>
   <si>
     <t>(0.013)</t>
   </si>
   <si>
-    <t>0.081</t>
-  </si>
-  <si>
-    <t>(0.009)</t>
-  </si>
-  <si>
-    <t>0.168</t>
-  </si>
-  <si>
-    <t>(0.033)</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>(0.022)</t>
-  </si>
-  <si>
-    <t>0.103</t>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>0.144</t>
+  </si>
+  <si>
+    <t>(0.031)</t>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>0.089</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>2.792</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
   </si>
   <si>
     <t>61</t>
@@ -99,13 +108,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>0.098</t>
-  </si>
-  <si>
-    <t>(0.038)</t>
-  </si>
-  <si>
-    <t>0.410</t>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>(0.035)</t>
+  </si>
+  <si>
+    <t>0.393</t>
   </si>
   <si>
     <t>(0.063)</t>
@@ -117,24 +126,27 @@
     <t>(0.046)</t>
   </si>
   <si>
-    <t>0.230</t>
-  </si>
-  <si>
-    <t>(0.120)</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>(0.098)</t>
-  </si>
-  <si>
     <t>0.197</t>
   </si>
   <si>
+    <t>(0.112)</t>
+  </si>
+  <si>
+    <t>0.508</t>
+  </si>
+  <si>
+    <t>(0.089)</t>
+  </si>
+  <si>
     <t>(0.069)</t>
   </si>
   <si>
+    <t>3.660</t>
+  </si>
+  <si>
+    <t>(0.092)</t>
+  </si>
+  <si>
     <t>896</t>
   </si>
   <si>
@@ -147,22 +159,25 @@
     <t>Mean difference</t>
   </si>
   <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>0.240***</t>
-  </si>
-  <si>
-    <t>0.066*</t>
-  </si>
-  <si>
-    <t>0.062</t>
-  </si>
-  <si>
-    <t>0.329***</t>
-  </si>
-  <si>
-    <t>0.094*</t>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.235***</t>
+  </si>
+  <si>
+    <t>0.073**</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>0.306***</t>
+  </si>
+  <si>
+    <t>0.108**</t>
+  </si>
+  <si>
+    <t>0.868***</t>
   </si>
 </sst>
 </file>
@@ -206,7 +221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -220,19 +235,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -243,19 +258,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -263,22 +278,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -286,22 +301,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -312,13 +327,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -332,22 +347,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -358,13 +373,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -378,22 +393,22 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -404,13 +419,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -424,22 +439,22 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -456,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -470,22 +485,22 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -502,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -516,22 +531,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -542,13 +557,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -562,21 +577,67 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
         <v>0</v>
       </c>
     </row>
